--- a/data/trans_orig/P04B3_1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>222516</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>198659</v>
+        <v>196814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>245823</v>
+        <v>245209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4461574840932968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.39832320535678</v>
+        <v>0.3946228829549357</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4928896345329312</v>
+        <v>0.4916585092882512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>347</v>
@@ -762,19 +762,19 @@
         <v>257429</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>235194</v>
+        <v>235267</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>278235</v>
+        <v>279594</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4132934373589893</v>
+        <v>0.4132934373589894</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3775964982222558</v>
+        <v>0.3777135577852511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4466967929579062</v>
+        <v>0.448879414948038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>560</v>
@@ -783,19 +783,19 @@
         <v>479945</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>448312</v>
+        <v>449149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>510634</v>
+        <v>512914</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4279068662028481</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3997036930000621</v>
+        <v>0.4004495532697093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4552677969600483</v>
+        <v>0.457300661574767</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>80016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65533</v>
+        <v>65771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99543</v>
+        <v>101438</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1604368734578719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.131396808610474</v>
+        <v>0.1318746436048556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1995891594505117</v>
+        <v>0.2033885144215704</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -833,19 +833,19 @@
         <v>117695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100706</v>
+        <v>100040</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>136626</v>
+        <v>136227</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.188955330108511</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.161680817494945</v>
+        <v>0.1606102098991652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2193483582767978</v>
+        <v>0.2187079207657832</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>242</v>
@@ -854,19 +854,19 @@
         <v>197711</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>173854</v>
+        <v>172385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>222289</v>
+        <v>221368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1762742248152383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1550039037056178</v>
+        <v>0.1536935343352563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.198187242146269</v>
+        <v>0.1973661583563382</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>69863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53501</v>
+        <v>53027</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90018</v>
+        <v>88874</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1400797970701886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1072721603797497</v>
+        <v>0.1063213657370413</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1804914950130118</v>
+        <v>0.1781972232546023</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -904,19 +904,19 @@
         <v>80465</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65186</v>
+        <v>67514</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95774</v>
+        <v>97267</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1291846044866213</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.104654418636404</v>
+        <v>0.1083909570608302</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1537623882080731</v>
+        <v>0.1561588731305314</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>170</v>
@@ -925,19 +925,19 @@
         <v>150329</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>129206</v>
+        <v>127048</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176347</v>
+        <v>175192</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1340292945775068</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1151969271337405</v>
+        <v>0.1132727407729795</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1572263916954857</v>
+        <v>0.156196818077473</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>126343</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>106357</v>
+        <v>104557</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150341</v>
+        <v>151925</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2533258453786428</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2132521222619535</v>
+        <v>0.209642635217309</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3014427853214079</v>
+        <v>0.3046173964373091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -975,19 +975,19 @@
         <v>167283</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148915</v>
+        <v>148499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190252</v>
+        <v>191966</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2685666280458783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2390779996934657</v>
+        <v>0.2384100608861098</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.305443761514136</v>
+        <v>0.3081942012981772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>343</v>
@@ -996,19 +996,19 @@
         <v>293626</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>261377</v>
+        <v>266160</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>324371</v>
+        <v>326464</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2617896144044066</v>
+        <v>0.2617896144044067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2330367215633505</v>
+        <v>0.237301717531344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.289200621295827</v>
+        <v>0.291066782087546</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>320265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>288615</v>
+        <v>288455</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>351728</v>
+        <v>352647</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3341334609854731</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3011130051085469</v>
+        <v>0.3009455875934412</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3669590236888031</v>
+        <v>0.3679176438121962</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>485</v>
@@ -1121,19 +1121,19 @@
         <v>354981</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>328904</v>
+        <v>328474</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>383735</v>
+        <v>381991</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3181266472658184</v>
+        <v>0.3181266472658182</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2947569487856862</v>
+        <v>0.2943715208200541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3438952960398298</v>
+        <v>0.3423322279334057</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>809</v>
@@ -1142,19 +1142,19 @@
         <v>675246</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>630480</v>
+        <v>633270</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>719033</v>
+        <v>714501</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3255229319349712</v>
+        <v>0.3255229319349711</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.303942001330709</v>
+        <v>0.305287067231338</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3466318360062547</v>
+        <v>0.3444469910504473</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>133476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111937</v>
+        <v>112237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158274</v>
+        <v>157608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1392562830119493</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.116784257244676</v>
+        <v>0.1170977590402388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1651279934204566</v>
+        <v>0.1644328728421766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>270</v>
@@ -1192,19 +1192,19 @@
         <v>181869</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158703</v>
+        <v>162062</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204299</v>
+        <v>204721</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1629868477097944</v>
+        <v>0.1629868477097943</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1422258205192816</v>
+        <v>0.1452368064927619</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1830882633851808</v>
+        <v>0.1834670220797697</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>404</v>
@@ -1213,19 +1213,19 @@
         <v>315345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>280901</v>
+        <v>285991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>345129</v>
+        <v>348926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1520216415832626</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1354167560418467</v>
+        <v>0.1378707878726015</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1663799111053409</v>
+        <v>0.168210443573989</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>199474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>169978</v>
+        <v>173009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>232739</v>
+        <v>233240</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2081115818441244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1773386893845516</v>
+        <v>0.1805004402908384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2428169217524725</v>
+        <v>0.243339784157868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>293</v>
@@ -1263,19 +1263,19 @@
         <v>209356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188163</v>
+        <v>185489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>232895</v>
+        <v>231556</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1876202680498612</v>
+        <v>0.1876202680498611</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1686272351424672</v>
+        <v>0.1662312897425992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2087150914611706</v>
+        <v>0.2075154781664558</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>456</v>
@@ -1284,19 +1284,19 @@
         <v>408830</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>372306</v>
+        <v>373051</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>447518</v>
+        <v>445838</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1970887102221599</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1794814348684871</v>
+        <v>0.1798406012499714</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2157396036252988</v>
+        <v>0.2149299507029652</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>305279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>274812</v>
+        <v>277036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>336117</v>
+        <v>339144</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3184986741584531</v>
+        <v>0.3184986741584532</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2867123279303996</v>
+        <v>0.2890324472315475</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.350672507689649</v>
+        <v>0.3538295665519897</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>559</v>
@@ -1334,19 +1334,19 @@
         <v>369643</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>344216</v>
+        <v>342533</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>395833</v>
+        <v>394338</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3312662369745261</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.308479031285363</v>
+        <v>0.3069708001809658</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3547368516266978</v>
+        <v>0.3533974383054897</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>847</v>
@@ -1355,19 +1355,19 @@
         <v>674922</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>629868</v>
+        <v>632952</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>717327</v>
+        <v>716886</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3253667162596063</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3036468713833675</v>
+        <v>0.3051338336261343</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.34580943623314</v>
+        <v>0.3455968100803798</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>259471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>229835</v>
+        <v>230120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>288979</v>
+        <v>286139</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2481787063706675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2198328847364814</v>
+        <v>0.2201054085446077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2764027269796575</v>
+        <v>0.2736866828972934</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>303</v>
@@ -1480,19 +1480,19 @@
         <v>228816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>202961</v>
+        <v>203808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>251375</v>
+        <v>252315</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2186131652288589</v>
+        <v>0.2186131652288588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1939108899270564</v>
+        <v>0.1947196863273991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2401653646148226</v>
+        <v>0.2410636989727202</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>566</v>
@@ -1501,19 +1501,19 @@
         <v>488287</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>452359</v>
+        <v>449791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>527317</v>
+        <v>523033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2333876481700475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2162147077260255</v>
+        <v>0.2149874756286317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2520428648010878</v>
+        <v>0.2499950875578215</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>129905</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>108058</v>
+        <v>108226</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>155611</v>
+        <v>155189</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1242518048453878</v>
+        <v>0.1242518048453877</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1033555112342497</v>
+        <v>0.1035155994836216</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1488385365761954</v>
+        <v>0.1484347418766827</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>182</v>
@@ -1551,19 +1551,19 @@
         <v>125659</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>108356</v>
+        <v>109627</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>144617</v>
+        <v>146337</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1200556336437413</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1035241743245036</v>
+        <v>0.1047385288820459</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1381686374064345</v>
+        <v>0.1398113646474212</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>302</v>
@@ -1572,19 +1572,19 @@
         <v>255564</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>229308</v>
+        <v>225555</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>286715</v>
+        <v>287706</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1221525429997944</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1096026062112386</v>
+        <v>0.1078091176414473</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1370417015458529</v>
+        <v>0.1375153816190249</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>183208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157806</v>
+        <v>157007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210071</v>
+        <v>212776</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1752351344207462</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1509379774167046</v>
+        <v>0.1501740196158846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2009288887437645</v>
+        <v>0.2035155721022679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>258</v>
@@ -1622,19 +1622,19 @@
         <v>198321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179235</v>
+        <v>173625</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>225753</v>
+        <v>223534</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1894774155438802</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1712426461498199</v>
+        <v>0.1658828875271506</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2156865535882381</v>
+        <v>0.2135664091508813</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>428</v>
@@ -1643,19 +1643,19 @@
         <v>381529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>347206</v>
+        <v>348960</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>421401</v>
+        <v>417192</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1823602672905105</v>
+        <v>0.1823602672905104</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1659549245607574</v>
+        <v>0.1667930499050258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2014176827547701</v>
+        <v>0.1994061198646789</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>472916</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>441916</v>
+        <v>436374</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>507005</v>
+        <v>508572</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4523343543631985</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4226835760861279</v>
+        <v>0.417383215238851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.484940380964944</v>
+        <v>0.4864393161600339</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>772</v>
@@ -1693,19 +1693,19 @@
         <v>493877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>466213</v>
+        <v>463594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>522421</v>
+        <v>520569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4718537855835196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4454239837289238</v>
+        <v>0.4429219914133003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4991253607807959</v>
+        <v>0.4973557520074689</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1247</v>
@@ -1714,19 +1714,19 @@
         <v>966792</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>924790</v>
+        <v>924773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1013141</v>
+        <v>1010425</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4620995415396477</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4420234745308721</v>
+        <v>0.4420154238708495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4842531196257909</v>
+        <v>0.4829548373907744</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>83733</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68059</v>
+        <v>66824</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106691</v>
+        <v>104878</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08579827072859407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0697375765641165</v>
+        <v>0.06847227823546757</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1093223695270355</v>
+        <v>0.1074646911262435</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>103</v>
@@ -1839,19 +1839,19 @@
         <v>69166</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56365</v>
+        <v>56234</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82805</v>
+        <v>84998</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07597762404236069</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06191610392278053</v>
+        <v>0.06177201086035805</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09095986060169488</v>
+        <v>0.09336888851799564</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>193</v>
@@ -1860,19 +1860,19 @@
         <v>152899</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130857</v>
+        <v>132949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178280</v>
+        <v>179825</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08105867529054141</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06937317894258684</v>
+        <v>0.07048216128520454</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09451430531055495</v>
+        <v>0.09533328014430974</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>119611</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>95246</v>
+        <v>99906</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143047</v>
+        <v>144937</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.12256079296619</v>
+        <v>0.1225607929661899</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09759509429976239</v>
+        <v>0.1023699240492508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1465752809440939</v>
+        <v>0.1485120943091833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -1910,19 +1910,19 @@
         <v>99587</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83486</v>
+        <v>84212</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116306</v>
+        <v>115842</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1093944187157611</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09170863741158015</v>
+        <v>0.0925059287673385</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1277601430088214</v>
+        <v>0.1272507063626139</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>261</v>
@@ -1931,19 +1931,19 @@
         <v>219197</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>192588</v>
+        <v>193350</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>247345</v>
+        <v>245356</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1162064978442095</v>
+        <v>0.1162064978442094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1020996760887763</v>
+        <v>0.1025034169579548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1311289799171692</v>
+        <v>0.1300744428729329</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>149940</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>127749</v>
+        <v>127095</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>176504</v>
+        <v>176860</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1536385371103486</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1308996475541677</v>
+        <v>0.1302300211222517</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1808577419461615</v>
+        <v>0.1812222114712201</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>159</v>
@@ -1981,19 +1981,19 @@
         <v>125189</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>107296</v>
+        <v>106446</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>146556</v>
+        <v>146477</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1375182603474562</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1178625755143637</v>
+        <v>0.1169290735101196</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1609894191285634</v>
+        <v>0.1609024310552874</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>297</v>
@@ -2002,19 +2002,19 @@
         <v>275129</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>244867</v>
+        <v>243231</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>307604</v>
+        <v>309854</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1458586431128735</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1298149414968627</v>
+        <v>0.1289479797504201</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1630747596055006</v>
+        <v>0.1642676994859785</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>622645</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>589287</v>
+        <v>587707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>656828</v>
+        <v>653641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6380023991948675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.603821903334677</v>
+        <v>0.6022027728386979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6730287723162911</v>
+        <v>0.6697625784894883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>917</v>
@@ -2052,19 +2052,19 @@
         <v>616403</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>588195</v>
+        <v>589008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>639602</v>
+        <v>639873</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6771096968944221</v>
+        <v>0.6771096968944219</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6461232436605373</v>
+        <v>0.6470158161138019</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7025930653310442</v>
+        <v>0.7028909414960715</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1520</v>
@@ -2073,19 +2073,19 @@
         <v>1239048</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1199163</v>
+        <v>1194266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1281135</v>
+        <v>1277776</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6568761837523758</v>
+        <v>0.6568761837523757</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6357310736468136</v>
+        <v>0.6331351527049163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.679188387074482</v>
+        <v>0.6774075531762456</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>885985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>832198</v>
+        <v>832242</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>943310</v>
+        <v>943611</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2546912998914368</v>
+        <v>0.2546912998914369</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2392292757152198</v>
+        <v>0.2392419520736418</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2711703195266587</v>
+        <v>0.2712569117607221</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1238</v>
@@ -2198,19 +2198,19 @@
         <v>910393</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>864411</v>
+        <v>866397</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>958932</v>
+        <v>960222</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2463357551838963</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2338938222206657</v>
+        <v>0.2344311538277851</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.259469492004993</v>
+        <v>0.2598185763161532</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2128</v>
@@ -2219,19 +2219,19 @@
         <v>1796378</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1724368</v>
+        <v>1731439</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1874374</v>
+        <v>1874820</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2503871198957593</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2403501250865938</v>
+        <v>0.2413356661946044</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2612586116393505</v>
+        <v>0.2613207773503722</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>463008</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>417606</v>
+        <v>424153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>508946</v>
+        <v>512237</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1330995474917484</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1200478412672811</v>
+        <v>0.1219298346850968</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1463050372768038</v>
+        <v>0.1472511737290217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>757</v>
@@ -2269,19 +2269,19 @@
         <v>524810</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>489212</v>
+        <v>483697</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>566478</v>
+        <v>560485</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1420039062152629</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1323718371682464</v>
+        <v>0.1308795780734701</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.153278617486755</v>
+        <v>0.1516570184980143</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1209</v>
@@ -2290,19 +2290,19 @@
         <v>987818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>934174</v>
+        <v>923278</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1045507</v>
+        <v>1040548</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1376864372797356</v>
+        <v>0.1376864372797357</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1302093817836524</v>
+        <v>0.1286905397771438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1457274149810829</v>
+        <v>0.1450361490124025</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>602486</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>552780</v>
+        <v>551331</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>658010</v>
+        <v>653806</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1731946303723652</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1589058260230075</v>
+        <v>0.1584894036958236</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1891559778516695</v>
+        <v>0.1879476271246946</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>824</v>
@@ -2340,19 +2340,19 @@
         <v>613331</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>574280</v>
+        <v>571952</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>659304</v>
+        <v>657129</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1659563386614678</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1553896993164271</v>
+        <v>0.1547598154272453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1783955537004657</v>
+        <v>0.1778071193304355</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1351</v>
@@ -2361,19 +2361,19 @@
         <v>1215817</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1155475</v>
+        <v>1147714</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1283771</v>
+        <v>1279946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1694659793417738</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1610552428535605</v>
+        <v>0.1599735143349773</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1789376976440912</v>
+        <v>0.1784045675779225</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>1527184</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1463311</v>
+        <v>1466067</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1596036</v>
+        <v>1592995</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4390145222444496</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4206533889308881</v>
+        <v>0.421445597657021</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4588072355356518</v>
+        <v>0.4579332197529239</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2487</v>
@@ -2411,19 +2411,19 @@
         <v>1647206</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1591696</v>
+        <v>1597304</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1699351</v>
+        <v>1707084</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4457039999393729</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4306839962563199</v>
+        <v>0.4322014823115501</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4598133930159639</v>
+        <v>0.4619059361851579</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3957</v>
@@ -2432,19 +2432,19 @@
         <v>3174389</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3085187</v>
+        <v>3086762</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3250275</v>
+        <v>3255742</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4424604634827314</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4300270907655006</v>
+        <v>0.4302466335393039</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4530377265528304</v>
+        <v>0.4537997721979032</v>
       </c>
     </row>
     <row r="28">
